--- a/タスク管理.xlsx
+++ b/タスク管理.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Sotusei\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEDAE9F-0FD1-4544-892D-820B26688CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22020" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,135 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>担当</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>髙橋</t>
+    <rPh sb="0" eb="2">
+      <t>タカハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八木</t>
+    <rPh sb="0" eb="2">
+      <t>ヤギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮</t>
+    <rPh sb="0" eb="1">
+      <t>ミヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー（移動、インタラクト）
+ステージ（読み込み、ギミック）
+演出（シェーダー等）
+「敵（AI追跡足止め）」
+サウンド（えぐい）</t>
+    <rPh sb="6" eb="8">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ツイセキ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要layers</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要バイオ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー（アクション）
+エネミー（AI）
+ステージギミック
+サウンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -37,10 +164,90 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -49,11 +256,92 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +618,240 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="J1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="15"/>
+    </row>
+    <row r="2" spans="1:17" ht="18.600000000000001" thickBot="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="18"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="J3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="21"/>
+    </row>
+    <row r="4" spans="1:17" ht="18.600000000000001" thickBot="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="24"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="24"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="J6" s="22"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="24"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="24"/>
+    </row>
+    <row r="8" spans="1:17" ht="18.600000000000001" thickBot="1">
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="27"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="15"/>
+    </row>
+    <row r="10" spans="1:17" ht="18.600000000000001" thickBot="1">
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="18"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="20"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="21"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="22"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="24"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="22"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="24"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="24"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="22"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="24"/>
+    </row>
+    <row r="16" spans="1:17" ht="18.600000000000001" thickBot="1">
+      <c r="J16" s="25"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="N1:Q2"/>
+    <mergeCell ref="N3:Q8"/>
+    <mergeCell ref="J9:M10"/>
+    <mergeCell ref="N9:Q10"/>
+    <mergeCell ref="J11:M16"/>
+    <mergeCell ref="N11:Q16"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="J1:M2"/>
+    <mergeCell ref="J3:M8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/タスク管理.xlsx
+++ b/タスク管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Sotusei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEDAE9F-0FD1-4544-892D-820B26688CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2630A238-4864-4C7B-958B-EF8EB17EDEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22020" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -258,73 +258,37 @@
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -338,6 +302,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -354,6 +354,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>181920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>75001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99D30743-64AC-C50D-133A-F3BECCC9F99F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8671560" y="2262180"/>
+          <a:ext cx="3261360" cy="1508521"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>464821</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>141238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>579121</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>132115</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ECA0011-0ED1-C7A3-2AA3-F20287F850D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5158741" y="2221498"/>
+          <a:ext cx="3467100" cy="1606317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -622,236 +715,237 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="J1" s="13" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="13" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="15"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="18.600000000000001" thickBot="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="18"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="J3" s="20" t="s">
+      <c r="F3" s="26"/>
+      <c r="J3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="20" t="s">
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="21"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="1:17" ht="18.600000000000001" thickBot="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="24"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="27"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="J5" s="22"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="24"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="J6" s="22"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="24"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="12"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="J7" s="22"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="24"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="12"/>
     </row>
     <row r="8" spans="1:17" ht="18.600000000000001" thickBot="1">
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="27"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="15"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="13" t="s">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="15"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="18.600000000000001" thickBot="1">
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="18"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="J11" s="20"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="21"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="9"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="J12" s="22"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="24"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="12"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="J13" s="22"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="24"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="J14" s="22"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="24"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="12"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="J15" s="22"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="24"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="1:17" ht="18.600000000000001" thickBot="1">
-      <c r="J16" s="25"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="27"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="J1:M2"/>
+    <mergeCell ref="J3:M8"/>
     <mergeCell ref="N1:Q2"/>
     <mergeCell ref="N3:Q8"/>
     <mergeCell ref="J9:M10"/>
     <mergeCell ref="N9:Q10"/>
     <mergeCell ref="J11:M16"/>
     <mergeCell ref="N11:Q16"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="J1:M2"/>
-    <mergeCell ref="J3:M8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/タスク管理.xlsx
+++ b/タスク管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Sotusei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2630A238-4864-4C7B-958B-EF8EB17EDEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92873A71-13D4-4FBC-9A1B-C65F25644EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22020" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>担当</t>
     <rPh sb="0" eb="2">
@@ -256,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -339,6 +339,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -360,16 +388,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>181920</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>75001</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>181681</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -392,7 +420,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8671560" y="2262180"/>
+          <a:off x="5737860" y="2597460"/>
           <a:ext cx="3261360" cy="1508521"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -404,16 +432,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>464821</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>141238</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>243841</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>156478</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>579121</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>132115</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>358141</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>154975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -436,7 +464,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5158741" y="2221498"/>
+          <a:off x="8961121" y="2472958"/>
           <a:ext cx="3467100" cy="1606317"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -715,7 +743,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -844,92 +872,96 @@
       <c r="P8" s="14"/>
       <c r="Q8" s="15"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" ht="18" customHeight="1">
       <c r="J9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:17" ht="18.600000000000001" thickBot="1">
+    <row r="10" spans="1:17" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
       <c r="J10" s="4"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="4"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17">
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="9"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="29"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="J12" s="10"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="12"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="32"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="J13" s="10"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="12"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="32"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="J14" s="10"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="12"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="32"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="12"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="32"/>
     </row>
     <row r="16" spans="1:17" ht="18.600000000000001" thickBot="1">
-      <c r="J16" s="13"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="15"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="10">
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:D4"/>
@@ -938,10 +970,8 @@
     <mergeCell ref="J3:M8"/>
     <mergeCell ref="N1:Q2"/>
     <mergeCell ref="N3:Q8"/>
-    <mergeCell ref="J9:M10"/>
-    <mergeCell ref="N9:Q10"/>
-    <mergeCell ref="J11:M16"/>
-    <mergeCell ref="N11:Q16"/>
+    <mergeCell ref="J9:Q10"/>
+    <mergeCell ref="J11:Q16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/タスク管理.xlsx
+++ b/タスク管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Sotusei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92873A71-13D4-4FBC-9A1B-C65F25644EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA678651-FCD9-404E-9614-3A3A8485C2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22020" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -256,8 +256,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -303,42 +342,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -348,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -363,10 +366,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -388,16 +387,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>52380</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>90480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>181681</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>219781</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -420,7 +419,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5737860" y="2597460"/>
+          <a:off x="8801100" y="2170740"/>
           <a:ext cx="3261360" cy="1508521"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -432,16 +431,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>243841</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>156478</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>365761</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>65038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>358141</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>154975</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>480061</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>55915</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -464,7 +463,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8961121" y="2472958"/>
+          <a:off x="5730241" y="2145298"/>
           <a:ext cx="3467100" cy="1606317"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -742,236 +741,231 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
-      <c r="J1" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="J1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="1" t="s">
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="3"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="16"/>
     </row>
     <row r="2" spans="1:17" ht="18.600000000000001" thickBot="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="6"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="23" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="J3" s="7" t="s">
+      <c r="F3" s="12"/>
+      <c r="J3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="7" t="s">
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="9"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="22"/>
     </row>
     <row r="4" spans="1:17" ht="18.600000000000001" thickBot="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="27"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="12"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="13"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="25"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="12"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="25"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="12"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:17" ht="18.600000000000001" thickBot="1">
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="15"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="28"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1">
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="3"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="16"/>
     </row>
     <row r="10" spans="1:17" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="6"/>
+      <c r="D10" s="1"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="19"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="29"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="30"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="J12" s="30"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="32"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="33"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="J13" s="30"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="32"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="33"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="J14" s="30"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="32"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="33"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="J15" s="30"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="32"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="33"/>
     </row>
     <row r="16" spans="1:17" ht="18.600000000000001" thickBot="1">
-      <c r="J16" s="33"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="35"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="N1:Q2"/>
+    <mergeCell ref="N3:Q8"/>
+    <mergeCell ref="J9:Q10"/>
+    <mergeCell ref="J11:Q16"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:D4"/>
     <mergeCell ref="E3:F4"/>
     <mergeCell ref="J1:M2"/>
     <mergeCell ref="J3:M8"/>
-    <mergeCell ref="N1:Q2"/>
-    <mergeCell ref="N3:Q8"/>
-    <mergeCell ref="J9:Q10"/>
-    <mergeCell ref="J11:Q16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/タスク管理.xlsx
+++ b/タスク管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Sotusei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA678651-FCD9-404E-9614-3A3A8485C2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C94173-3364-46BE-BC29-84DFD9594F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>担当</t>
     <rPh sb="0" eb="2">
@@ -51,13 +51,6 @@
     <t>宮</t>
     <rPh sb="0" eb="1">
       <t>ミヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>必要</t>
-    <rPh sb="0" eb="2">
-      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -117,12 +110,132 @@
 サウンド</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ホラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターン制RPG</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シューティングゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レーシング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ghost wire</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポケモン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラクエ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FPS、TPS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2DSTG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マリカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラチナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カプコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>龍が</t>
+    <rPh sb="0" eb="1">
+      <t>リュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZELDA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Phasmophobia</t>
+  </si>
+  <si>
+    <t>格闘</t>
+    <rPh sb="0" eb="2">
+      <t>カクトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KOF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DOA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DNFDUEL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ATLUS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ATOMIC HEART</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VANQUISH</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +268,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -256,47 +377,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -327,9 +412,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -342,29 +424,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -381,99 +486,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>90480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>219781</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99D30743-64AC-C50D-133A-F3BECCC9F99F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8801100" y="2170740"/>
-          <a:ext cx="3261360" cy="1508521"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>365761</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>65038</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>480061</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>55915</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ECA0011-0ED1-C7A3-2AA3-F20287F850D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5730241" y="2145298"/>
-          <a:ext cx="3467100" cy="1606317"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -741,225 +753,284 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="10" max="10" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-      <c r="J1" s="14" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" spans="1:17" ht="18.600000000000001" thickBot="1">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="J3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="16"/>
-    </row>
-    <row r="2" spans="1:17" ht="18.600000000000001" thickBot="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="19"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="J3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="20" t="s">
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="4" spans="1:17" ht="18.600000000000001" thickBot="1">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="27"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="12"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="J5" s="11"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="12"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="J6" s="11"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="12"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="11"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="12"/>
+    </row>
+    <row r="8" spans="1:17" ht="18.600000000000001" thickBot="1">
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="15"/>
+    </row>
+    <row r="9" spans="1:17" ht="18" customHeight="1">
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+    </row>
+    <row r="10" spans="1:17" ht="18.600000000000001" customHeight="1">
+      <c r="D10" s="1"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+    </row>
+    <row r="11" spans="1:17" ht="54">
+      <c r="J11" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="22"/>
-    </row>
-    <row r="4" spans="1:17" ht="18.600000000000001" thickBot="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="13"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="25"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="J5" s="23"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="25"/>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="J6" s="23"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="25"/>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="J7" s="23"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="25"/>
-    </row>
-    <row r="8" spans="1:17" ht="18.600000000000001" thickBot="1">
-      <c r="J8" s="26"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="28"/>
-    </row>
-    <row r="9" spans="1:17" ht="18" customHeight="1">
-      <c r="J9" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="16"/>
-    </row>
-    <row r="10" spans="1:17" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="D10" s="1"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="19"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="J11" s="20"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
+      <c r="K11" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" s="30"/>
       <c r="Q11" s="30"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="33"/>
+      <c r="J12" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="33"/>
+      <c r="J13" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="J14" s="31"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="33"/>
+      <c r="J14" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="33"/>
-    </row>
-    <row r="16" spans="1:17" ht="18.600000000000001" thickBot="1">
-      <c r="J16" s="34"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="36"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="30"/>
+      <c r="K16" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="8">
     <mergeCell ref="N1:Q2"/>
     <mergeCell ref="N3:Q8"/>
-    <mergeCell ref="J9:Q10"/>
-    <mergeCell ref="J11:Q16"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:D4"/>
@@ -970,6 +1041,5 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/タスク管理.xlsx
+++ b/タスク管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Sotusei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C94173-3364-46BE-BC29-84DFD9594F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59C8CB3-8D0A-48B0-B708-54FDA2BE7273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,32 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>担当</t>
     <rPh sb="0" eb="2">
       <t>タントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>髙橋</t>
-    <rPh sb="0" eb="2">
-      <t>タカハシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>八木</t>
-    <rPh sb="0" eb="2">
-      <t>ヤギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宮</t>
-    <rPh sb="0" eb="1">
-      <t>ミヤ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -111,123 +90,77 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ホラー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アクション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ターン制RPG</t>
-    <rPh sb="3" eb="4">
-      <t>セイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シューティングゲーム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レーシング</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>layers</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バイオ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ghost wire</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ポケモン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ドラクエ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FPS、TPS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2DSTG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マリカ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プラチナ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カプコン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>龍が</t>
+    <t>つくりこみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮:演出</t>
     <rPh sb="0" eb="1">
-      <t>リュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ZELDA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Phasmophobia</t>
-  </si>
-  <si>
-    <t>格闘</t>
+      <t>ミヤ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八木：シェーダー</t>
     <rPh sb="0" eb="2">
-      <t>カクトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KOF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DOA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DNFDUEL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ATLUS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ATOMIC HEART</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VANQUISH</t>
+      <t>ヤギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>髙橋：キャラ</t>
+    <rPh sb="0" eb="2">
+      <t>タカハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松尾：</t>
+    <rPh sb="0" eb="2">
+      <t>マツオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCRON（Honor)</t>
+  </si>
+  <si>
+    <t>ALIEN（H)</t>
+  </si>
+  <si>
+    <t>DeadSpace(AH)</t>
+  </si>
+  <si>
+    <t>VANQUISH（Action)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bright Memory（A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GhostWire（AH）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ホラー(演出)＊アクション(手触り、かっこいい感、回避、パリィ、ハイスピードorずっしり)
+＊シューティング（TP or FP）
+</t>
+    <rPh sb="4" eb="6">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テザワ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カイヒ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -235,7 +168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,23 +202,68 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF202124"/>
+      <b/>
+      <i/>
+      <sz val="72"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -373,15 +351,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -412,6 +402,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -442,15 +435,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -460,17 +447,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -751,18 +804,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="10" max="10" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.296875" customWidth="1"/>
+    <col min="11" max="11" width="17.59765625" customWidth="1"/>
+    <col min="12" max="12" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.796875" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
     <col min="15" max="15" width="10.296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -777,110 +831,126 @@
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
       <c r="H1" s="18"/>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="4"/>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="18.600000000000001" thickBot="1">
       <c r="A2" s="19"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="20"/>
       <c r="H2" s="21"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="7"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="38"/>
+      <c r="G3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="24"/>
+      <c r="J3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="26"/>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="10"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="1:17" ht="18.600000000000001" thickBot="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="27"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="25"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
       <c r="M4" s="12"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="J5" s="11"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
       <c r="M5" s="12"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="J6" s="11"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
       <c r="M6" s="12"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
       <c r="Q6" s="12"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="J7" s="11"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
       <c r="Q7" s="12"/>
     </row>
     <row r="8" spans="1:17" ht="18.600000000000001" thickBot="1">
+      <c r="B8" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="13"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
@@ -891,144 +961,155 @@
       <c r="Q8" s="15"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1">
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-    </row>
-    <row r="10" spans="1:17" ht="18.600000000000001" customHeight="1">
-      <c r="D10" s="1"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-    </row>
-    <row r="11" spans="1:17" ht="54">
-      <c r="J11" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="30" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="42"/>
+    </row>
+    <row r="10" spans="1:17" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="44"/>
+    </row>
+    <row r="11" spans="1:17" ht="18" customHeight="1">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="30" t="s">
+      <c r="L11" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="41"/>
+    </row>
+    <row r="12" spans="1:17" ht="18" customHeight="1">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="M12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+    </row>
+    <row r="13" spans="1:17" ht="18" customHeight="1">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="N11" s="30" t="s">
+      <c r="L13" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="J12" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="N12" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="J13" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="O13" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="J14" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="J15" s="30"/>
-      <c r="K15" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="J16" s="30"/>
-      <c r="K16" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+    </row>
+    <row r="14" spans="1:17" ht="18" customHeight="1">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="K14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+    </row>
+    <row r="15" spans="1:17" ht="18.600000000000001" customHeight="1">
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+    </row>
+    <row r="16" spans="1:17" ht="19.8">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
+      <c r="H16" s="27"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+    </row>
+    <row r="17" spans="2:17" ht="19.8">
+      <c r="B17" s="52"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="N1:Q2"/>
     <mergeCell ref="N3:Q8"/>
     <mergeCell ref="A1:H2"/>
@@ -1037,6 +1118,9 @@
     <mergeCell ref="E3:F4"/>
     <mergeCell ref="J1:M2"/>
     <mergeCell ref="J3:M8"/>
+    <mergeCell ref="B8:I14"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="J9:Q10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/タスク管理.xlsx
+++ b/タスク管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Sotusei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59C8CB3-8D0A-48B0-B708-54FDA2BE7273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFE3D2B-8D03-45AB-B847-28B171D7D85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,7 +168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,8 +242,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,8 +270,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -366,56 +380,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -432,100 +426,136 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -804,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -821,295 +851,299 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
-      <c r="J1" s="1" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="J1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="1" t="s">
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="3"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="41"/>
     </row>
     <row r="2" spans="1:17" ht="18.600000000000001" thickBot="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="6"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="44"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="38" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="22" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="24"/>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="7" t="s">
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="9"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="47"/>
     </row>
     <row r="4" spans="1:17" ht="18.600000000000001" thickBot="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="25"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="12"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="50"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="12"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="50"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="12"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="50"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="50"/>
     </row>
     <row r="8" spans="1:17" ht="18.600000000000001" thickBot="1">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="15"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="53"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1">
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="28" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="42"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="29"/>
     </row>
     <row r="10" spans="1:17" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="44"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="32"/>
     </row>
     <row r="11" spans="1:17" ht="18" customHeight="1">
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="45" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" ht="18" customHeight="1">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="M12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" ht="18" customHeight="1">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="46" t="s">
+      <c r="O13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="49" t="s">
+      <c r="P13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q11" s="41"/>
-    </row>
-    <row r="12" spans="1:17" ht="18" customHeight="1">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="M12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-    </row>
-    <row r="13" spans="1:17" ht="18" customHeight="1">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
+      <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" ht="18" customHeight="1">
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="K14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" ht="18.600000000000001" customHeight="1">
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" ht="19.8">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52"/>
-      <c r="H16" s="27"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-    </row>
-    <row r="17" spans="2:17" ht="19.8">
-      <c r="B17" s="52"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="3:17" ht="19.8">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="3:17">
+      <c r="J18" s="33"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
     <mergeCell ref="N1:Q2"/>
     <mergeCell ref="N3:Q8"/>
     <mergeCell ref="A1:H2"/>
@@ -1121,9 +1155,17 @@
     <mergeCell ref="B8:I14"/>
     <mergeCell ref="G3:H4"/>
     <mergeCell ref="J9:Q10"/>
+    <mergeCell ref="J14:J18"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="L14:L18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="J13" r:id="rId1" xr:uid="{1321C88D-EF02-4390-A957-CF50190B2786}"/>
+    <hyperlink ref="K13" r:id="rId2" xr:uid="{514B1131-C1DC-475F-80D1-259A4CC2ED81}"/>
+    <hyperlink ref="L13" r:id="rId3" xr:uid="{D1233ADF-7A40-4AC8-85B8-6321B35FAAD9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/タスク管理.xlsx
+++ b/タスク管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Sotusei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFE3D2B-8D03-45AB-B847-28B171D7D85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E521207B-7E2F-44FD-8422-69C7EF0ED545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,72 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>担当</t>
     <rPh sb="0" eb="2">
       <t>タントウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤー（移動、インタラクト）
-ステージ（読み込み、ギミック）
-演出（シェーダー等）
-「敵（AI追跡足止め）」
-サウンド（えぐい）</t>
-    <rPh sb="6" eb="8">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>エンシュツ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ツイセキ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>アシ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>必要layers</t>
-    <rPh sb="0" eb="2">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>必要バイオ</t>
-    <rPh sb="0" eb="2">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤー（アクション）
-エネミー（AI）
-ステージギミック
-サウンド</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>つくりこみ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -160,6 +100,74 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">プレイ人数：1人 / オンライン多人数
+FPS / TPS
+敵に追いかけられる / 敵を倒して進んでいく
+探索型(迷路ではない) / 一本道
+アクション重め / アクション軽め
+ウェーブクリア型 / 脱出型 / ステージクリア型(一本道とかも)
+</t>
+    <rPh sb="3" eb="5">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>タニンズウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>メイロ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>カル</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ダッシュツ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="115" eb="118">
+      <t>イッポンミチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -186,25 +194,6 @@
     <font>
       <b/>
       <sz val="22"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="72"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
@@ -250,8 +239,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="72"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,19 +265,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,25 +385,32 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -432,125 +432,100 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -837,7 +812,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="J1" sqref="J1:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -850,251 +825,246 @@
     <col min="15" max="15" width="10.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:17" ht="18" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11"/>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
       <c r="J1" s="39" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K1" s="40"/>
       <c r="L1" s="40"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="39" t="s">
-        <v>3</v>
-      </c>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
       <c r="O1" s="40"/>
       <c r="P1" s="40"/>
       <c r="Q1" s="41"/>
     </row>
-    <row r="2" spans="1:17" ht="18.600000000000001" thickBot="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="12"/>
+    <row r="2" spans="1:17" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="15"/>
       <c r="J2" s="42"/>
       <c r="K2" s="43"/>
       <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
       <c r="O2" s="43"/>
       <c r="P2" s="43"/>
       <c r="Q2" s="44"/>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="24"/>
-      <c r="J3" s="45" t="s">
+    <row r="3" spans="1:17" ht="18" customHeight="1">
+      <c r="A3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="45" t="s">
+      <c r="F3" s="24"/>
+      <c r="G3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="47"/>
+      <c r="H3" s="26"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="44"/>
     </row>
     <row r="4" spans="1:17" ht="18.600000000000001" thickBot="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="50"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="44"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="J5" s="48"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="50"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="J6" s="48"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="50"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="44"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="J7" s="48"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="50"/>
-    </row>
-    <row r="8" spans="1:17" ht="18.600000000000001" thickBot="1">
-      <c r="B8" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="53"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
+    </row>
+    <row r="8" spans="1:17" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1">
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="29"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="31"/>
     </row>
     <row r="10" spans="1:17" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="32"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="34"/>
     </row>
     <row r="11" spans="1:17" ht="18" customHeight="1">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" ht="18" customHeight="1">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
       <c r="M12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" ht="18" customHeight="1">
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="37" t="s">
-        <v>12</v>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P13" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" ht="18" customHeight="1">
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="34"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="35"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -1102,9 +1072,9 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" ht="18.600000000000001" customHeight="1">
-      <c r="J15" s="33"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="33"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="36"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -1116,9 +1086,9 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="33"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="36"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -1128,9 +1098,9 @@
     <row r="17" spans="3:17" ht="19.8">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="33"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="36"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -1138,26 +1108,22 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="3:17">
-      <c r="J18" s="33"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="33"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="N1:Q2"/>
-    <mergeCell ref="N3:Q8"/>
+  <mergeCells count="10">
+    <mergeCell ref="J9:Q10"/>
+    <mergeCell ref="J14:J18"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="L14:L18"/>
+    <mergeCell ref="J1:Q8"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:D4"/>
     <mergeCell ref="E3:F4"/>
-    <mergeCell ref="J1:M2"/>
-    <mergeCell ref="J3:M8"/>
-    <mergeCell ref="B8:I14"/>
     <mergeCell ref="G3:H4"/>
-    <mergeCell ref="J9:Q10"/>
-    <mergeCell ref="J14:J18"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="L14:L18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
